--- a/resources/experiment 2/metrics/MAPE/average time/Enfermedad renal terminal.xlsx
+++ b/resources/experiment 2/metrics/MAPE/average time/Enfermedad renal terminal.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.067491046266334</v>
+        <v>0.0124905995992804</v>
       </c>
       <c r="C3" t="n">
-        <v>0.067491046266334</v>
+        <v>0.01277285751795381</v>
       </c>
       <c r="D3" t="n">
-        <v>0.067491046266334</v>
+        <v>0.051592380313197</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01183842362565402</v>
+        <v>0.014213000018349</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01183842362565402</v>
+        <v>0.01454834688729477</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01183842362565402</v>
+        <v>0.05998628857852755</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2008336430589035</v>
+        <v>0.01298542539928405</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2008336430589035</v>
+        <v>0.01292917550587768</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2008336430589035</v>
+        <v>0.01867569471876836</v>
       </c>
     </row>
   </sheetData>
